--- a/Project/Data.xlsx
+++ b/Project/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bl4ck\Desktop\Project\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bl4ck\Desktop\DSADProj\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F420AE8-EAB8-4D25-8532-DB84385E3D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F11AFE-C79B-4E58-B68F-E97CF8C211A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{A150E86B-074A-4D26-A59F-4C7EC4EB6BBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{A150E86B-074A-4D26-A59F-4C7EC4EB6BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Students enrolled " sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Hours worked" sheetId="8" r:id="rId6"/>
     <sheet name="Unemployment rate" sheetId="9" r:id="rId7"/>
     <sheet name="Preprocessed data" sheetId="1" r:id="rId8"/>
+    <sheet name="CSV" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="56">
   <si>
     <t>Belgium</t>
   </si>
@@ -194,9 +195,6 @@
   </si>
   <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>CSV:</t>
   </si>
   <si>
     <t>Unemployment</t>
@@ -235,13 +233,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8F8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +276,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,13 +601,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8771DD10-6C4A-4AE8-B2EB-6EF6D3D194C3}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1043,13 +1049,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD3AD4B-78CE-422C-9386-8D24091B7F6A}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1490,14 +1497,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7C82F5-75DE-451E-88A7-31B6715C70EB}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D14" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2170,12 +2179,13 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="107.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2492,12 +2502,12 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B6" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2807,7 +2817,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,11 +3139,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8454A53-CFEA-40F9-972F-72C0C501BBA8}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3446,47 +3460,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B32DA-0669-4513-A1C9-5CFBFD6EAC81}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="3" t="str">
-        <f>_xlfn.TEXTJOIN(",",FALSE,A1:F1)</f>
-        <v>GEO,Graduation rate,Life satisfaction,Poverty risk,Hours worked,Unemployment</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3510,15 +3519,8 @@
         <f>IFERROR(VLOOKUP(A2,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="3" t="str">
-        <f>_xlfn.TEXTJOIN(",",FALSE,A2:F2)</f>
-        <v>Austria,0.2,7.9,14.7,1726,11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3542,12 +3544,8 @@
         <f>IFERROR(VLOOKUP(A3,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>18.2</v>
       </c>
-      <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I37" si="0">_xlfn.TEXTJOIN(",",FALSE,A3:F3)</f>
-        <v>Belgium,0.2,7.6,12.7,1426,18.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3571,12 +3569,8 @@
         <f>IFERROR(VLOOKUP(A4,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>18.2</v>
       </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Belgium,0.2,7.6,12.7,1426,18.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3600,12 +3594,8 @@
         <f>IFERROR(VLOOKUP(A5,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>15.8</v>
       </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Bulgaria,0.2,5.6,22.1,1652,15.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -3629,12 +3619,8 @@
         <f>IFERROR(VLOOKUP(A6,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>15.8</v>
       </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Bulgaria,0.2,5.6,22.1,1652,15.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3658,12 +3644,8 @@
         <f>IFERROR(VLOOKUP(A7,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>21.9</v>
       </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Croatia,0.2,6.8,19.2,1789,21.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3687,12 +3669,8 @@
         <f>IFERROR(VLOOKUP(A8,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>17.100000000000001</v>
       </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Cyprus,nan,7.2,13.8,1670,17.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -3716,12 +3694,8 @@
         <f>IFERROR(VLOOKUP(A9,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Czechia,0.2,7.4,8.6,1669,8.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3745,12 +3719,8 @@
         <f>IFERROR(VLOOKUP(A10,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>10.8</v>
       </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Denmark,0.3,7.5,12.3,1559,10.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3774,12 +3744,8 @@
         <f>IFERROR(VLOOKUP(A11,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>16.7</v>
       </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Estonia,0.2,7.2,20.6,1726,16.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3803,12 +3769,8 @@
         <f>IFERROR(VLOOKUP(A12,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>17.100000000000001</v>
       </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Finland,0.2,7.7,10.8,1616,17.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3832,12 +3794,8 @@
         <f>IFERROR(VLOOKUP(A13,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>18.899999999999999</v>
       </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>France,nan,7,14.3,1493,18.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3861,12 +3819,8 @@
         <f>IFERROR(VLOOKUP(A14,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>7</v>
       </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Germany,0.2,6.5,16,1607,7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3890,12 +3844,8 @@
         <f>IFERROR(VLOOKUP(A15,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>35.5</v>
       </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Greece,nan,6.7,19.6,1688,35.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3919,12 +3869,8 @@
         <f>IFERROR(VLOOKUP(A16,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>13.5</v>
       </c>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Hungary,0.2,6.9,12.6,1763,13.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3948,12 +3894,8 @@
         <f>IFERROR(VLOOKUP(A17,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>12.1</v>
       </c>
-      <c r="I17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Iceland,0.2,nan,nan,1854,12.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3977,12 +3919,8 @@
         <f>IFERROR(VLOOKUP(A18,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>14.5</v>
       </c>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ireland,nan,7.4,12.9,1653,14.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4006,12 +3944,8 @@
         <f>IFERROR(VLOOKUP(A19,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>29.7</v>
       </c>
-      <c r="I19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Italy,0.2,7.2,20.1,1510,29.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4035,12 +3969,8 @@
         <f>IFERROR(VLOOKUP(A20,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>14.8</v>
       </c>
-      <c r="I20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Latvia,0.2,6.8,23.4,1685,14.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -4064,12 +3994,8 @@
         <f>IFERROR(VLOOKUP(A21,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>nan</v>
       </c>
-      <c r="I21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Liechtenstein,0.3,nan,nan,nan,nan</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -4093,12 +4019,8 @@
         <f>IFERROR(VLOOKUP(A22,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>14.3</v>
       </c>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Lithuania,0.2,7.1,20,1693,14.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -4122,12 +4044,8 @@
         <f>IFERROR(VLOOKUP(A23,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="I23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Luxembourg,0.2,7.2,18.1,1527,16.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -4151,12 +4069,8 @@
         <f>IFERROR(VLOOKUP(A24,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>9.4</v>
       </c>
-      <c r="I24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Malta,0.3,7.4,16.9,1822,9.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4180,12 +4094,8 @@
         <f>IFERROR(VLOOKUP(A25,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>nan</v>
       </c>
-      <c r="I25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Montenegro,nan,5.8,21.2,nan,nan</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -4209,12 +4119,8 @@
         <f>IFERROR(VLOOKUP(A26,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="I26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Netherlands,0.2,7.6,14.4,1678,9.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -4238,12 +4144,8 @@
         <f>IFERROR(VLOOKUP(A27,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>12.6</v>
       </c>
-      <c r="I27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Norway,0.2,7.6,12.6,1444,12.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -4267,12 +4169,8 @@
         <f>IFERROR(VLOOKUP(A28,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>11.9</v>
       </c>
-      <c r="I28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Poland,0.2,7.7,14.8,1673,11.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4296,12 +4194,8 @@
         <f>IFERROR(VLOOKUP(A29,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>23.5</v>
       </c>
-      <c r="I29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Portugal,0.2,7,18.4,1668,23.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -4325,12 +4219,8 @@
         <f>IFERROR(VLOOKUP(A30,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>21</v>
       </c>
-      <c r="I30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Romania,0.2,7.7,22.5,1744,21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4354,12 +4244,8 @@
         <f>IFERROR(VLOOKUP(A31,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>26.4</v>
       </c>
-      <c r="I31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Serbia,nan,6.1,21.2,1637,26.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -4383,12 +4269,8 @@
         <f>IFERROR(VLOOKUP(A32,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>20.6</v>
       </c>
-      <c r="I32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Slovakia,0.3,7,12.3,1565,20.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4412,12 +4294,8 @@
         <f>IFERROR(VLOOKUP(A33,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>12.8</v>
       </c>
-      <c r="I33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Slovenia,0.2,7.5,11.7,1518,12.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4441,12 +4319,8 @@
         <f>IFERROR(VLOOKUP(A34,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="I34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Spain,0.2,7.1,21.7,1595,34.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4470,12 +4344,8 @@
         <f>IFERROR(VLOOKUP(A35,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>24.7</v>
       </c>
-      <c r="I35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Sweden,0.2,7.4,15.7,1629,24.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -4499,12 +4369,8 @@
         <f>IFERROR(VLOOKUP(A36,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="I36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Switzerland,0.3,8,14.7,1821,8.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4528,12 +4394,8 @@
         <f>IFERROR(VLOOKUP(A37,'Unemployment rate'!$A$2:$B$100,2,FALSE),"nan")</f>
         <v>nan</v>
       </c>
-      <c r="I37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Türkiye,0.1,nan,22.4,2055,nan</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -4558,7 +4420,7 @@
         <v>nan</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
@@ -4583,7 +4445,7 @@
         <v>nan</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -4608,7 +4470,7 @@
         <v>nan</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
@@ -4633,7 +4495,7 @@
         <v>nan</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
@@ -4664,4 +4526,211 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F74DBB-1C00-4E5F-987D-3A4CAD756296}">
+  <dimension ref="B2:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="76.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10),TRUE,,_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A1:F1),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A2:F2),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A3:F3),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A4:F4),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A5:F5),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A6:F6),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A7:F7),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A8:F8),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A9:F9),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A10:F10),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A11:F11),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A12:F12),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A13:F13),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A14:F14),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A15:F15),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A16:F16),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A17:F17),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A18:F18),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A19:F19),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A20:F20),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A21:F21),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A22:F22),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A23:F23),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A24:F24),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A25:F25),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A26:F26),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A27:F27),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A28:F28),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A29:F29),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A30:F30),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A31:F31),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A32:F32),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A33:F33),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A34:F34),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A35:F35),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A36:F36),
+_xlfn.TEXTJOIN(",",FALSE,'Preprocessed data'!A37:F37))</f>
+        <v>GEO,Graduation rate,Life satisfaction,Poverty risk,Hours worked,Unemployment
+Austria,0.2,7.9,14.7,1726,11
+Belgium,0.2,7.6,12.7,1426,18.2
+Belgium,0.2,7.6,12.7,1426,18.2
+Bulgaria,0.2,5.6,22.1,1652,15.8
+Bulgaria,0.2,5.6,22.1,1652,15.8
+Croatia,0.2,6.8,19.2,1789,21.9
+Cyprus,nan,7.2,13.8,1670,17.1
+Czechia,0.2,7.4,8.6,1669,8.2
+Denmark,0.3,7.5,12.3,1559,10.8
+Estonia,0.2,7.2,20.6,1726,16.7
+Finland,0.2,7.7,10.8,1616,17.1
+France,nan,7,14.3,1493,18.9
+Germany,0.2,6.5,16,1607,7
+Greece,nan,6.7,19.6,1688,35.5
+Hungary,0.2,6.9,12.6,1763,13.5
+Iceland,0.2,nan,nan,1854,12.1
+Ireland,nan,7.4,12.9,1653,14.5
+Italy,0.2,7.2,20.1,1510,29.7
+Latvia,0.2,6.8,23.4,1685,14.8
+Liechtenstein,0.3,nan,nan,nan,nan
+Lithuania,0.2,7.1,20,1693,14.3
+Luxembourg,0.2,7.2,18.1,1527,16.9
+Malta,0.3,7.4,16.9,1822,9.4
+Montenegro,nan,5.8,21.2,nan,nan
+Netherlands,0.2,7.6,14.4,1678,9.3
+Norway,0.2,7.6,12.6,1444,12.6
+Poland,0.2,7.7,14.8,1673,11.9
+Portugal,0.2,7,18.4,1668,23.5
+Romania,0.2,7.7,22.5,1744,21
+Serbia,nan,6.1,21.2,1637,26.4
+Slovakia,0.3,7,12.3,1565,20.6
+Slovenia,0.2,7.5,11.7,1518,12.8
+Spain,0.2,7.1,21.7,1595,34.8
+Sweden,0.2,7.4,15.7,1629,24.7
+Switzerland,0.3,8,14.7,1821,8.8
+Türkiye,0.1,nan,22.4,2055,nan</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>